--- a/data/trans_dic/CONS_TIR-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_TIR-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>3,93%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,19</t>
+          <t>0,26; 1,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,13</t>
+          <t>0,45; 2,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,36</t>
+          <t>1,33; 4,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,99; 8,17</t>
+          <t>3,83; 6,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,96; 11,74</t>
+          <t>6,82; 12,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,86; 6,44</t>
+          <t>3,75; 7,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,03; 5,57</t>
+          <t>2,28; 3,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,77; 6,2</t>
+          <t>3,41; 6,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 3,67</t>
+          <t>2,8; 5,36</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>2,98%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,2</t>
+          <t>0,75; 3,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,23</t>
+          <t>0,33; 2,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,68</t>
+          <t>0,0; 0,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,59; 8,0</t>
+          <t>6,53; 11,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,54; 10,07</t>
+          <t>4,64; 9,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,68; 10,89</t>
+          <t>3,43; 7,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,65</t>
+          <t>4,37; 7,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,13; 5,4</t>
+          <t>2,48; 5,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,45; 7,16</t>
+          <t>1,89; 4,43</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>2,72%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,5</t>
+          <t>0,64; 2,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,31</t>
+          <t>0,0; 1,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,27</t>
+          <t>0,42; 3,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 9,9</t>
+          <t>6,73; 13,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,22; 13,35</t>
+          <t>7,05; 17,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,05; 11,74</t>
+          <t>2,41; 10,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,07</t>
+          <t>2,61; 4,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,04</t>
+          <t>0,54; 4,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,51; 4,41</t>
+          <t>1,46; 4,59</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>1,65%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,78%</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>38,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>21,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,29%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,84</t>
+          <t>0,87; 2,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,73</t>
+          <t>0,74; 2,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,72</t>
+          <t>0,92; 3,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,34; 10,0</t>
+          <t>5,56; 9,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,11; 45,87</t>
+          <t>8,71; 74,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,67; 8,85</t>
+          <t>4,6; 9,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,73</t>
+          <t>3,61; 5,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 28,55</t>
+          <t>4,77; 54,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,68; 5,51</t>
+          <t>3,22; 5,71</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>3,88%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,97</t>
+          <t>0,66; 3,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,09</t>
+          <t>0,62; 5,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,77</t>
+          <t>0,2; 3,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,77; 11,15</t>
+          <t>7,06; 11,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,76; 12,42</t>
+          <t>4,66; 12,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,27; 11,21</t>
+          <t>4,26; 10,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,55</t>
+          <t>5,0; 8,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,46; 8,74</t>
+          <t>4,04; 9,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,12; 7,81</t>
+          <t>2,49; 5,86</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>5,02%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,4</t>
+          <t>0,31; 3,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,53; 8,47</t>
+          <t>0,85; 13,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,25</t>
+          <t>0,0; 46,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,13</t>
+          <t>3,72; 7,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,92; 7,99</t>
+          <t>4,57; 8,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,67; 6,6</t>
+          <t>0,0; 13,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,67</t>
+          <t>2,95; 5,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,08</t>
+          <t>4,22; 8,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,76; 4,72</t>
+          <t>0,0; 19,46</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>16,61%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>3,71%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,14</t>
+          <t>0,96; 1,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,93</t>
+          <t>0,84; 2,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,76</t>
+          <t>1,1; 2,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,34; 7,61</t>
+          <t>6,54; 8,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,96; 20,75</t>
+          <t>7,59; 40,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,35; 7,8</t>
+          <t>4,87; 7,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,23; 4,44</t>
+          <t>3,97; 4,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,85; 13,03</t>
+          <t>4,36; 22,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,92; 4,74</t>
+          <t>3,13; 4,4</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para la tiroides</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>883</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4356</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7635</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>26843</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15441</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8517</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>31198</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>22514</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>380; 1830</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1659; 9411</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3931; 11990</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5472; 9813</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>20373; 36646</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10381; 21811</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6577; 11023</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>22722; 41807</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16005; 30665</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1440</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3333</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>9539</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>17581</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>12547</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10979</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20913</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>12739</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>611; 3064</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1072; 8854</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1107</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7129; 12352</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>12061; 25187</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7958; 18104</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8307; 14304</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>14509; 29696</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8069; 18949</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2070</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2836</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11027</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8170</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>12012</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>7165</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1044; 3835</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5912</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>766; 6618</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4251; 8241</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6881; 17143</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1993; 8307</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5931; 11201</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3113; 25146</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3839; 12106</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2576</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8867</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5844</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>13179</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>246107</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>20913</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>15754</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>254974</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>26757</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1474; 4435</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3990; 15310</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2832; 10689</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>9852; 16542</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>55462; 473562</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>14540; 29745</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>12529; 20076</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>55935; 639124</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>20118; 35666</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1286</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4517</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1461</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>12099</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>33991</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>10400</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>13384</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>38508</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>11861</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>504; 2916</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1315; 12231</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>302; 5101</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>9380; 15364</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>19759; 51490</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6602; 16767</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>10483; 16867</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>25633; 59624</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>7592; 17901</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6977</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6251</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>30985</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6860</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>37963</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1043</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>143; 1756</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1410; 22042</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4301</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>4405; 8638</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>22381; 41815</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1520</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>4825; 9334</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>27679; 53128</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4044</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>8863</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>29035</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>18177</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>54802</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>366533</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>63902</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>63665</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>395569</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>82079</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>6536; 12278</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>17474; 45646</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>12504; 26376</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>48653; 61410</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>167554; 900949</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>52260; 76786</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>56692; 71210</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>186936; 980665</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>69223; 97496</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_TIR-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_TIR-Clase-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tiroides</t>
+          <t>Consumo de medicamentos para la tiroides (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1448,7 +1448,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tiroides</t>
+          <t>Consumo de medicamentos para la tiroides (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_TIR-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_TIR-Clase-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,26</t>
+          <t>0,35; 1,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,57</t>
+          <t>0,45; 2,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 6,87</t>
+          <t>3,96; 7,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,82; 12,26</t>
+          <t>6,64; 12,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 3,82</t>
+          <t>2,3; 4,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,28</t>
+          <t>3,44; 6,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,77</t>
+          <t>0,67; 3,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,73</t>
+          <t>0,32; 2,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,53; 11,32</t>
+          <t>6,16; 10,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,64; 9,68</t>
+          <t>4,62; 9,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,37; 7,52</t>
+          <t>4,15; 6,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,08</t>
+          <t>2,45; 4,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,34</t>
+          <t>0,6; 2,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,24</t>
+          <t>0,0; 1,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,73; 13,05</t>
+          <t>7,29; 14,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,05; 17,57</t>
+          <t>6,91; 17,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 4,93</t>
+          <t>2,82; 5,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,39</t>
+          <t>0,34; 4,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,61</t>
+          <t>1,06; 3,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,86</t>
+          <t>0,91; 2,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,56; 9,34</t>
+          <t>4,38; 7,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,71; 74,38</t>
+          <t>8,77; 76,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 5,78</t>
+          <t>3,0; 4,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,77; 54,5</t>
+          <t>4,82; 53,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,79</t>
+          <t>0,63; 3,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,79</t>
+          <t>0,53; 5,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,06; 11,56</t>
+          <t>6,83; 11,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,66; 12,15</t>
+          <t>4,41; 11,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,0; 8,04</t>
+          <t>4,62; 7,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,04; 9,39</t>
+          <t>3,84; 8,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,88</t>
+          <t>0,12; 3,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,85; 13,22</t>
+          <t>0,81; 12,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,3</t>
+          <t>3,69; 6,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,57; 8,55</t>
+          <t>4,79; 8,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,95; 5,71</t>
+          <t>2,77; 5,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,22; 8,1</t>
+          <t>4,28; 8,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,96; 1,8</t>
+          <t>0,99; 1,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,19</t>
+          <t>0,83; 2,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,54; 8,26</t>
+          <t>6,02; 7,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,59; 40,83</t>
+          <t>7,69; 39,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,97; 4,99</t>
+          <t>3,75; 4,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,36; 22,88</t>
+          <t>4,4; 25,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>1327</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7635</t>
+          <t>8985</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8517</t>
+          <t>10313</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>380; 1830</t>
+          <t>568; 2643</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1659; 9411</t>
+          <t>1649; 9165</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5472; 9813</t>
+          <t>6668; 11814</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20373; 36646</t>
+          <t>19845; 36797</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6577; 11023</t>
+          <t>7617; 13312</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22722; 41807</t>
+          <t>22867; 40687</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>1381</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9539</t>
+          <t>9973</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10979</t>
+          <t>11354</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>611; 3064</t>
+          <t>604; 3066</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1072; 8854</t>
+          <t>1041; 8292</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7129; 12352</t>
+          <t>7553; 12900</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12061; 25187</t>
+          <t>12016; 25086</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8307; 14304</t>
+          <t>8844; 14398</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14509; 29696</t>
+          <t>14310; 28518</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2070</t>
+          <t>1889</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6417</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8170</t>
+          <t>8306</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1044; 3835</t>
+          <t>918; 3437</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0; 5912</t>
+          <t>0; 6165</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4251; 8241</t>
+          <t>4490; 9183</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6881; 17143</t>
+          <t>6739; 16745</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5931; 11201</t>
+          <t>6081; 11320</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3113; 25146</t>
+          <t>1967; 24513</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2576</t>
+          <t>3108</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13179</t>
+          <t>10208</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>15754</t>
+          <t>13316</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1474; 4435</t>
+          <t>1804; 5204</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3990; 15310</t>
+          <t>4877; 15470</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2159,12 +2159,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9852; 16542</t>
+          <t>7977; 13083</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>55462; 473562</t>
+          <t>55827; 488760</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12529; 20076</t>
+          <t>10540; 16683</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>55935; 639124</t>
+          <t>56559; 630175</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1286</t>
+          <t>1177</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12099</t>
+          <t>11033</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13384</t>
+          <t>12209</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>504; 2916</t>
+          <t>465; 2321</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1315; 12231</t>
+          <t>1118; 10703</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2322,12 +2322,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9380; 15364</t>
+          <t>8572; 13874</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>19759; 51490</t>
+          <t>18714; 50526</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2337,12 +2337,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>10483; 16867</t>
+          <t>9239; 15267</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>25633; 59624</t>
+          <t>24416; 55625</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>597</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6251</t>
+          <t>6240</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>6860</t>
+          <t>6837</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2470,12 +2470,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>143; 1756</t>
+          <t>68; 2173</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1410; 22042</t>
+          <t>1349; 21080</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2485,12 +2485,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4405; 8638</t>
+          <t>4530; 8312</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>22381; 41815</t>
+          <t>23424; 41229</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4825; 9334</t>
+          <t>4928; 9052</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>27679; 53128</t>
+          <t>28064; 54010</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>8863</t>
+          <t>9479</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>54802</t>
+          <t>52857</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>63665</t>
+          <t>62336</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>6536; 12278</t>
+          <t>6997; 12431</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>17474; 45646</t>
+          <t>17292; 45662</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>48653; 61410</t>
+          <t>47178; 59201</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>167554; 900949</t>
+          <t>169747; 879258</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>56692; 71210</t>
+          <t>55876; 69102</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>186936; 980665</t>
+          <t>188732; 1078143</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_TIR-Clase-trans_dic.xlsx
+++ b/data/trans_dic/CONS_TIR-Clase-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,82%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,19%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,39%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>9,23%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5,58%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>5,33%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>8,98%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>5,58%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3,93%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>3,11%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>4,69%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>3,93%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,45; 2,46</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1,33; 4,06</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,35; 1,62</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,45; 2,5</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,33; 4,06</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>6,87; 12,53</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3,75; 7,88</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>3,96; 7,01</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>6,64; 12,31</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>3,75; 7,88</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>3,55; 6,29</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2,8; 5,36</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>2,3; 4,02</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>3,44; 6,11</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>2,8; 5,36</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,01%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,1%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>1,53%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,03%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,1%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>8,13%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,76%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>5,41%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>3,66%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,98%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>5,33%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>3,58%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>2,98%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,31; 2,51</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,57</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,67; 3,39</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,32; 2,56</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,57</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>4,72; 9,67</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3,43; 7,8</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>6,16; 10,52</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>4,62; 9,65</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>3,43; 7,8</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>2,52; 4,93</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1,89; 4,43</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>4,15; 6,76</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>2,45; 4,88</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>1,89; 4,43</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1,23%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,21%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,57%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>11,12%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5,23%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>10,41%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>11,3%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>5,23%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,72%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>3,85%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2,1%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>2,72%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,0; 1,64</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 3,66</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,6; 2,23</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,3</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,42; 3,66</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>6,88; 16,63</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2,41; 10,03</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>7,29; 14,9</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>6,91; 17,16</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>2,41; 10,03</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>2,23; 5,44</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1,46; 4,59</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>2,82; 5,25</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,34; 4,28</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1,46; 4,59</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,89%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>1,83%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,65%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,89%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>9,37%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6,62%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>5,6%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>38,66%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,62%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>5,02%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4,29%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>3,78%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>21,74%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>4,29%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,83; 2,66</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 3,47</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1,06; 3,07</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 2,89</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 3,47</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>7,28; 11,69</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4,6; 9,41</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>4,38; 7,18</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>8,77; 76,77</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>4,6; 9,41</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>3,96; 6,16</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3,22; 5,71</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>3,0; 4,74</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>4,82; 53,73</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>3,22; 5,71</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2,12%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>1,58%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,14%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,97%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>8,09%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6,71%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>8,8%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>8,02%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>6,71%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>5,8%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,88%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>6,11%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>6,06%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>3,88%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,74; 4,58</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 3,39</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>0,63; 3,12</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 5,07</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,2; 3,39</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>5,85; 10,48</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4,26; 10,81</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>6,83; 11,06</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>4,41; 11,92</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>4,26; 10,81</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>4,38; 7,35</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,49; 5,86</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>4,62; 7,64</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>3,84; 8,76</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>2,49; 5,86</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>3,81%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8,24%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>1,07%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,18%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>8,24%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>6,75%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2,38%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>5,09%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>6,33%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>2,38%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>6,05%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5,02%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>3,84%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>5,79%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>5,02%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,79; 11,15</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 46,01</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0,12; 3,91</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,81; 12,64</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 46,01</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>5,05; 9,2</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 13,3</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>3,69; 6,78</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>4,79; 8,43</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 13,3</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>4,49; 8,32</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 19,46</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>2,77; 5,08</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>4,28; 8,23</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 19,46</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,49%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>1,34%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,4%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,59%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>8,2%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5,95%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>6,75%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>16,61%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>5,95%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>4,96%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3,71%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>4,18%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>9,23%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>3,71%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,96; 2,18</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 2,31</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>0,99; 1,76</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,83; 2,19</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,1; 2,31</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>7,28; 9,17</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4,87; 7,15</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>6,02; 7,56</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>7,69; 39,85</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>4,87; 7,15</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>4,36; 5,63</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3,13; 4,4</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>3,75; 4,64</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>4,4; 25,15</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>3,13; 4,4</t>
         </is>
       </c>
     </row>
@@ -1479,47 +1479,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>57</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>41</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>4826</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7073</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>1327</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>4356</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>7073</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>30236</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15441</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>8985</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>26843</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>15441</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>35063</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>22514</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>10313</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>31198</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>22514</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1763; 9743</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3931; 11990</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>568; 2643</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1649; 9165</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3931; 11990</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>22517; 41046</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10381; 21811</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>6668; 11814</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>19845; 36797</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>10381; 21811</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>25690; 45442</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16005; 30665</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>7617; 13312</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>22867; 40687</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>16005; 30665</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>56</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>63</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3471</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1381</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3333</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>192</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>19618</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>12547</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>9973</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>17581</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>12547</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>23088</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12739</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>11354</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>20913</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>12739</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>1074; 8637</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1107</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>604; 3066</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1041; 8292</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0; 1107</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>13550; 27756</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>7958; 18104</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>7553; 12900</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>12016; 25086</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>7958; 18104</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>15914; 31147</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8069; 18949</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>8844; 14398</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>14310; 28518</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>8069; 18949</t>
         </is>
       </c>
     </row>
@@ -1875,47 +1875,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>35</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>45</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>839</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2836</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1889</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>985</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2836</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>12395</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>6417</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>11027</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>4329</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>13234</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7165</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>8306</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>12012</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>7165</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0; 4262</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>766; 6618</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>918; 3437</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0; 6165</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>766; 6618</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>7671; 18545</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1993; 8307</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>4490; 9183</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>6739; 16745</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>1993; 8307</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>8285; 20251</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3839; 12106</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>6081; 11320</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1967; 24513</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>3839; 12106</t>
         </is>
       </c>
     </row>
@@ -2038,47 +2038,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>67</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>83</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
         </is>
       </c>
     </row>
@@ -2091,47 +2091,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>9310</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5844</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>3108</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8867</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5844</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>45946</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>20913</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>10208</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>246107</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>20913</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>55256</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>26757</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>13316</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>254974</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>26757</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>5093; 16248</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2832; 10689</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>1804; 5204</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>4877; 15470</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2832; 10689</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>35692; 57290</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>14540; 29745</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>7977; 13083</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>55827; 488760</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>14540; 29745</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>43576; 67759</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>20118; 35666</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>10540; 16683</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>56559; 630175</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>20118; 35666</t>
         </is>
       </c>
     </row>
@@ -2201,47 +2201,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>67</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>74</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
         </is>
       </c>
     </row>
@@ -2254,47 +2254,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>5368</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1461</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>1177</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>4517</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1461</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>33009</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>10400</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>11033</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>33991</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>10400</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>38377</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>11861</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>12209</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>38508</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>11861</t>
         </is>
       </c>
     </row>
@@ -2307,47 +2307,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>1874; 11608</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>302; 5101</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>465; 2321</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>1118; 10703</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>302; 5101</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>23855; 42756</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6602; 16767</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>8572; 13874</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>18714; 50526</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>6602; 16767</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>28935; 48640</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7592; 17901</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>9239; 15267</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>24416; 55625</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>7592; 17901</t>
         </is>
       </c>
     </row>
@@ -2369,42 +2369,42 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>43</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
@@ -2417,47 +2417,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>6459</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>597</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>6977</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>770</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>36873</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>6240</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>30985</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>272</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>43332</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1043</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>6837</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>37963</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>1043</t>
         </is>
       </c>
     </row>
@@ -2470,47 +2470,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>1339; 18892</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4301</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>68; 2173</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>1349; 21080</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>0; 4301</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>27576; 50254</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1520</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>4530; 8312</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>23424; 41229</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>0; 1520</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>32153; 59568</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4044</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>4928; 9052</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>28064; 54010</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>0; 4044</t>
         </is>
       </c>
     </row>
@@ -2527,47 +2527,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>315</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>264</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>365</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>293</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>155</t>
         </is>
       </c>
     </row>
@@ -2580,47 +2580,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>30273</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>18177</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>9479</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>29035</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>18177</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>178077</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>63902</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>52857</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>366533</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>63902</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>208350</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>82079</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>62336</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>395569</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>82079</t>
         </is>
       </c>
     </row>
@@ -2633,47 +2633,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>19493; 44304</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>12504; 26376</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>6997; 12431</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>17292; 45662</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>12504; 26376</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>158031; 199030</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>52260; 76786</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>47178; 59201</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>169747; 879258</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>52260; 76786</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>183358; 236643</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>69223; 97496</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>55876; 69102</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>188732; 1078143</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>69223; 97496</t>
         </is>
       </c>
     </row>
